--- a/input/ICDs/777_QTR_ICD.xlsx
+++ b/input/ICDs/777_QTR_ICD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vp344e\Downloads\A7-BAA_20220930191855.wgl\ICDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xc170f\Documents\FDA\vscode\qardecode\input\ICDs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F75105-972D-4720-820F-998AA7CDFB00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7521C2B8-ED98-46FE-83F3-4D4F4C7A266C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7C81A97A-8747-644E-AE8C-4C65FC9CA3F7}"/>
   </bookViews>
@@ -28,160 +28,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Paruchuru, Vimala Devi V</author>
-  </authors>
-  <commentList>
-    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{74DEDB20-E0EF-47D6-8B45-82B1B6C5ADE9}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Paruchuru, Vimala Devi V:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-ALTITUDE (1013) LSH</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{390F9460-ADCA-42C5-BA2A-54B5D30674E1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Paruchuru, Vimala Devi V:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-bit length is 11 actually</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{86F6C843-DAF8-4C9E-BF01-88962AE1097E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Paruchuru, Vimala Devi V:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-FUEL FLOW (WF) (LEFT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{CED9BA0B-A4A5-4AC8-BDA9-709BBC578900}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Paruchuru, Vimala Devi V:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-was 65535 earlier</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{401C3C63-EC52-44FD-8C44-A9978C8EC3A6}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Paruchuru, Vimala Devi V:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-FMF_MACH_TGT</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{963709E1-E11A-4FB4-9BD8-B8876B170C38}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Paruchuru, Vimala Devi V:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-TRUE TRACK ANGLE</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="116">
   <si>
@@ -537,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -545,43 +391,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPSMT"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -596,18 +412,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,25 +727,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CDE903-53D6-FA47-ADC0-A23EF7634E8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CDE903-53D6-FA47-ADC0-A23EF7634E8F}">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,1381 +783,1304 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2">
         <v>453</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>454</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
         <v>6</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>454</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
         <v>96</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5">
-        <v>12</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5">
         <v>454</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>346</v>
       </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>320</v>
       </c>
       <c r="L6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D7">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>133</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>64</v>
       </c>
       <c r="L7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>132</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" t="s">
         <v>76</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9">
         <v>512</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>0.125</v>
       </c>
       <c r="L9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
+      <c r="D10">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>302</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10">
         <v>0.125</v>
       </c>
       <c r="L10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5">
-        <v>12</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <v>12</v>
+      </c>
+      <c r="E11">
         <v>8</v>
       </c>
-      <c r="F11" s="5">
-        <v>14</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11">
+        <v>14</v>
+      </c>
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>15</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13">
         <v>16</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" t="s">
         <v>76</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5">
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>120</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="6" t="s">
+      <c r="J14" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>11</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>120</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>2</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="6" t="s">
+      <c r="J15" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16">
+        <v>12</v>
+      </c>
+      <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>120</v>
       </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="6" t="s">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16">
         <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5">
-        <v>12</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>12</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>320</v>
       </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" t="s">
         <v>74</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <v>100</v>
       </c>
       <c r="L17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5">
-        <v>12</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>171</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18">
         <v>4.3945280000000003E-2</v>
       </c>
       <c r="L18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="5">
-        <v>12</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>30</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19">
         <v>8.7890640000000006E-2</v>
       </c>
       <c r="L19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="5">
-        <v>12</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20">
+        <v>12</v>
+      </c>
+      <c r="E20">
         <v>3</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20">
         <v>31</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" t="s">
         <v>81</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20">
         <v>1.7165999999999999E-4</v>
       </c>
       <c r="L20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="5">
-        <v>12</v>
-      </c>
-      <c r="E21" s="5">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>32</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
         <v>8.7890640000000006E-2</v>
       </c>
       <c r="L21" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5" t="s">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="5">
-        <v>12</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22">
         <v>33</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5" t="s">
+      <c r="I22" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" t="s">
         <v>81</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22">
         <v>1.7165999999999999E-4</v>
       </c>
       <c r="L22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
         <v>207</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23">
         <v>16</v>
       </c>
       <c r="L23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>208</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5" t="s">
+      <c r="I24" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" t="s">
         <v>105</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24">
         <v>16</v>
       </c>
       <c r="L24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="5">
-        <v>12</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="D25">
+        <v>12</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>285</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6" t="s">
+      <c r="J25" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25">
         <v>2E-3</v>
       </c>
       <c r="L25" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5">
-        <v>12</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>18</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
+      <c r="I26" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26">
         <v>1024</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26">
         <v>0.25</v>
       </c>
       <c r="L26" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="5">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-      <c r="F27" s="7">
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>167</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
+      <c r="I27" t="s">
         <v>36</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" t="s">
         <v>82</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27">
         <v>7.8125E-3</v>
       </c>
       <c r="L27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="5">
-        <v>12</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7">
+      <c r="D28">
+        <v>12</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>167</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28">
         <v>2</v>
       </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
+      <c r="I28" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" t="s">
         <v>82</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28">
         <v>7.8125E-3</v>
       </c>
       <c r="L28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5">
-        <v>12</v>
-      </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>335</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
+      <c r="I29" t="s">
         <v>19</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29">
         <v>512</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29">
         <v>0.125</v>
       </c>
       <c r="L29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="5">
-        <v>12</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="D30">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>319</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
+      <c r="I30" t="s">
         <v>36</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30">
         <v>180</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30">
         <v>8.7890560000000006E-2</v>
       </c>
       <c r="L30" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>97</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5">
-        <v>12</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
         <v>6</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31">
         <v>451</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31">
         <v>4</v>
       </c>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="6" t="s">
+      <c r="I31" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" t="s">
         <v>96</v>
       </c>
-      <c r="K31" s="5">
-        <v>1</v>
-      </c>
-      <c r="L31" s="1" t="s">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>98</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5">
-        <v>12</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="B32" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32">
+        <v>12</v>
+      </c>
+      <c r="E32">
         <v>6</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32">
         <v>452</v>
       </c>
-      <c r="G32" s="5">
-        <v>1</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="6" t="s">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" t="s">
         <v>96</v>
       </c>
-      <c r="K32" s="5">
-        <v>1</v>
-      </c>
-      <c r="L32" s="1" t="s">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5">
-        <v>12</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>12</v>
+      </c>
+      <c r="E33">
         <v>6</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>452</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <v>2</v>
       </c>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="6" t="s">
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="5">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1" t="s">
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5">
-        <v>12</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
         <v>6</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>452</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34">
         <v>3</v>
       </c>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="6" t="s">
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" t="s">
         <v>96</v>
       </c>
-      <c r="K34" s="5">
-        <v>1</v>
-      </c>
-      <c r="L34" s="1" t="s">
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5">
-        <v>12</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
         <v>6</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>452</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35">
         <v>4</v>
       </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="6" t="s">
+      <c r="I35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" t="s">
         <v>96</v>
       </c>
-      <c r="K35" s="5">
-        <v>1</v>
-      </c>
-      <c r="L35" s="1" t="s">
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5">
-        <v>12</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="B36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>12</v>
+      </c>
+      <c r="E36">
         <v>6</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36">
         <v>453</v>
       </c>
-      <c r="G36" s="5">
-        <v>1</v>
-      </c>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="6" t="s">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" t="s">
         <v>96</v>
       </c>
-      <c r="K36" s="5">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1" t="s">
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>103</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37">
+        <v>12</v>
+      </c>
+      <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37">
         <v>453</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37">
         <v>2</v>
       </c>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="6" t="s">
+      <c r="I37" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="5">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1" t="s">
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5">
-        <v>12</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>12</v>
+      </c>
+      <c r="E38">
         <v>6</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38">
         <v>453</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="6" t="s">
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" t="s">
         <v>96</v>
       </c>
-      <c r="K38" s="5">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1" t="s">
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5">
-        <v>12</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>128</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5">
+      <c r="J39">
         <v>4096</v>
       </c>
-      <c r="K39" s="5">
-        <v>1</v>
-      </c>
-      <c r="L39" s="1" t="s">
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="8" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>114</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5">
-        <v>12</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40">
         <v>10</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40">
         <v>120</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40">
         <v>3</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5">
+      <c r="J40">
         <v>160</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40">
         <v>10</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5">
-        <v>12</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1</v>
-      </c>
-      <c r="F41" s="5">
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <v>12</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>36</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5">
+      <c r="J41">
         <v>1.024</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" t="s">
         <v>115</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L26" xr:uid="{02AB6802-5451-47AC-AFD2-0A40023E041F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2363,9 +2092,9 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -2373,7 +2102,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -2381,7 +2110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -2389,7 +2118,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -2397,7 +2126,7 @@
         <v>8192</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -2405,7 +2134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
